--- a/biology/Zoologie/Copernic_(Retour_vers_le_futur)/Copernic_(Retour_vers_le_futur).xlsx
+++ b/biology/Zoologie/Copernic_(Retour_vers_le_futur)/Copernic_(Retour_vers_le_futur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Copernic est, dans la trilogie Retour vers le futur, le chien de berger de Doc Brown en 1955. Son âge est inconnu, bien qu'il soit petit et susceptible d'avoir un âge bas pour un chien. Ce même chien joue Copernic dans chacun des films (à part le 2), et avec un petit laps de temps entre la réalisation du premier et troisième film. C'est lui qui découvre la tombe de Doc en 1955. Il est le dernier d'un grand nombre de chiens de Doc au nom de célèbres scientifiques, dans ce cas Nicolas Copernic.
